--- a/Arduino/DataSheet.xlsx
+++ b/Arduino/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="39260" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="48620" yWindow="740" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>블루투스 통신 프로토콜 데이터 시트</t>
   </si>
@@ -55,47 +55,220 @@
     <t>우 : 0x72</t>
   </si>
   <si>
-    <t>회전 : 0x01</t>
-  </si>
-  <si>
-    <t>이동 : 0x00</t>
-  </si>
-  <si>
-    <t>전체 다리 : 0x00</t>
-  </si>
-  <si>
-    <t>로봇 : 0x00</t>
-  </si>
-  <si>
-    <t>기울기 : 0x02</t>
-  </si>
-  <si>
-    <t>수평기울기 : 0x03</t>
-  </si>
-  <si>
-    <t>비틀기 : 0x04</t>
-  </si>
-  <si>
-    <t>UP : 0x05</t>
-  </si>
-  <si>
     <t>distance</t>
   </si>
   <si>
-    <t>DOWN : 0x06</t>
-  </si>
-  <si>
     <t>위 : 0x75</t>
   </si>
   <si>
     <t>아래 : 0x64</t>
+  </si>
+  <si>
+    <r>
+      <t>이동 : 0x6D
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ove)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>회전 : 0x72
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>otate)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>기울기 : 0x73
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ilt)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>수평기울기 : 0x68
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>orizontal tilt)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>비틀기 : 0x73
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>kew)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UP/DOWN : 0x65
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>levation)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>전체 다리 : 0x61
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ll)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>로봇 : 0x72
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>obot)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,6 +298,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="나눔고딕"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -140,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -158,6 +338,32 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -187,7 +393,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -197,11 +403,20 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -600,14 +815,14 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C28" sqref="C27:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -618,34 +833,34 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>19</v>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
@@ -690,8 +905,8 @@
     <row r="8" spans="1:6">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>9</v>
@@ -712,8 +927,8 @@
     <row r="10" spans="1:6">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>7</v>
@@ -754,8 +969,8 @@
     <row r="14" spans="1:6">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
+      <c r="C14" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>7</v>
@@ -796,8 +1011,8 @@
     <row r="18" spans="1:6">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="3" t="s">
-        <v>17</v>
+      <c r="C18" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>9</v>
@@ -818,11 +1033,11 @@
     <row r="20" spans="1:6">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="5" t="s">
-        <v>18</v>
+      <c r="C20" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -830,21 +1045,20 @@
     <row r="21" spans="1:6">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C21" s="6"/>
       <c r="D21" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B4:B21"/>
     <mergeCell ref="E4:E21"/>
     <mergeCell ref="F4:F21"/>
     <mergeCell ref="A4:A21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C13"/>

--- a/Arduino/DataSheet.xlsx
+++ b/Arduino/DataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="48620" yWindow="740" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>블루투스 통신 프로토콜 데이터 시트</t>
   </si>
@@ -261,6 +261,31 @@
         <charset val="129"/>
       </rPr>
       <t>obot)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>RESET : 0x69
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>nitial)</t>
     </r>
   </si>
 </sst>
@@ -320,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -343,35 +368,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -397,29 +398,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -430,6 +431,7 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -440,6 +442,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -812,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C28" sqref="C27:C28"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -833,237 +836,249 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="8" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="4" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="30">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B4:B21"/>
-    <mergeCell ref="E4:E21"/>
-    <mergeCell ref="F4:F21"/>
-    <mergeCell ref="A4:A21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E4:E22"/>
+    <mergeCell ref="F4:F22"/>
+    <mergeCell ref="B4:B22"/>
+    <mergeCell ref="A4:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Arduino/DataSheet.xlsx
+++ b/Arduino/DataSheet.xlsx
@@ -115,31 +115,6 @@
   </si>
   <si>
     <r>
-      <t>기울기 : 0x73
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="나눔고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="나눔고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ilt)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>수평기울기 : 0x68
 (</t>
     </r>
@@ -165,6 +140,131 @@
   </si>
   <si>
     <r>
+      <t>UP/DOWN : 0x65
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>levation)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>전체 다리 : 0x61
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ll)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>로봇 : 0x72
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>obot)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>RESET : 0x69
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>nitial)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>기울기 : 0x74
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="나눔고딕"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ilt)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>비틀기 : 0x73
 (</t>
     </r>
@@ -185,107 +285,7 @@
         <rFont val="나눔고딕"/>
         <charset val="129"/>
       </rPr>
-      <t>kew)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>UP/DOWN : 0x65
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="나눔고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="나눔고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>levation)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>전체 다리 : 0x61
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="나눔고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="나눔고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ll)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>로봇 : 0x72
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="나눔고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="나눔고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>obot)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>RESET : 0x69
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="나눔고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="나눔고딕"/>
-        <charset val="129"/>
-      </rPr>
-      <t>nitial)</t>
+      <t>kew : twist)</t>
     </r>
   </si>
 </sst>
@@ -405,10 +405,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -417,7 +414,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="23">
@@ -818,7 +818,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -856,232 +856,231 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="7" t="s">
-        <v>17</v>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="8"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="7" t="s">
-        <v>18</v>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="8"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="7" t="s">
-        <v>19</v>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="8"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="30">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="9" t="s">
-        <v>22</v>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E4:E22"/>
+    <mergeCell ref="F4:F22"/>
+    <mergeCell ref="B4:B22"/>
+    <mergeCell ref="A4:A22"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E4:E22"/>
-    <mergeCell ref="F4:F22"/>
-    <mergeCell ref="B4:B22"/>
-    <mergeCell ref="A4:A22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
